--- a/results/NHANES1.xlsx
+++ b/results/NHANES1.xlsx
@@ -6922,16 +6922,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="17">
-        <v>0.0045222787216725631</v>
+        <v>0.0045222787216725622</v>
       </c>
       <c r="C4" s="18">
-        <v>0.0038470574090573146</v>
+        <v>0.0038470574090573141</v>
       </c>
       <c r="D4" s="19">
-        <v>0.0045222787216725631</v>
+        <v>0.0045222787216725622</v>
       </c>
       <c r="E4" s="20">
-        <v>0.0038470574090573146</v>
+        <v>0.0038470574090573141</v>
       </c>
     </row>
     <row r="5">
@@ -6939,16 +6939,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="22">
-        <v>13.315567520166562</v>
+        <v>13.315567520166564</v>
       </c>
       <c r="C5" s="23">
-        <v>9.5500350509964544</v>
+        <v>9.5500350509964562</v>
       </c>
       <c r="D5" s="24">
-        <v>207.81189090197827</v>
+        <v>207.8118909019783</v>
       </c>
       <c r="E5" s="25">
-        <v>250.38889844286078</v>
+        <v>250.38889844286081</v>
       </c>
     </row>
     <row r="6">
@@ -6956,10 +6956,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="27">
-        <v>1.3479465387829894e-14</v>
+        <v>1.3479465387829845e-14</v>
       </c>
       <c r="C6" s="28">
-        <v>6.9079605843823997e-11</v>
+        <v>6.9079605843823726e-11</v>
       </c>
       <c r="D6" s="29">
         <v>1.1426787165571348e-51</v>
@@ -7113,13 +7113,13 @@
         <v>0.0076662570015779176</v>
       </c>
       <c r="C18" s="73">
-        <v>0.0079257756505285177</v>
+        <v>0.007925775650528516</v>
       </c>
       <c r="D18" s="74">
         <v>0.0076662570015779176</v>
       </c>
       <c r="E18" s="75">
-        <v>0.0079257756505285177</v>
+        <v>0.007925775650528516</v>
       </c>
     </row>
     <row r="19">
@@ -7130,13 +7130,13 @@
         <v>17.202999933676502</v>
       </c>
       <c r="C19" s="78">
-        <v>17.836287856363828</v>
+        <v>17.836287856363832</v>
       </c>
       <c r="D19" s="79">
         <v>113.23875277487133</v>
       </c>
       <c r="E19" s="80">
-        <v>108.33432863507277</v>
+        <v>108.33432863507279</v>
       </c>
     </row>
     <row r="20">
@@ -7147,13 +7147,13 @@
         <v>9.9201490910631486e-18</v>
       </c>
       <c r="C20" s="83">
-        <v>3.4687775090274625e-18</v>
+        <v>3.4687775090274378e-18</v>
       </c>
       <c r="D20" s="84">
         <v>3.0459321529293262e-43</v>
       </c>
       <c r="E20" s="85">
-        <v>1.2516799523309916e-42</v>
+        <v>1.2516799523309734e-42</v>
       </c>
     </row>
     <row r="21">
@@ -7298,16 +7298,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="127">
-        <v>0.0076196192501376998</v>
+        <v>0.0076196192501377016</v>
       </c>
       <c r="C33" s="128">
-        <v>0.0079299323128058097</v>
+        <v>0.0079299323128058114</v>
       </c>
       <c r="D33" s="129">
-        <v>0.0076196192501376998</v>
+        <v>0.0076196192501377016</v>
       </c>
       <c r="E33" s="130">
-        <v>0.0079299323128058097</v>
+        <v>0.0079299323128058114</v>
       </c>
     </row>
     <row r="34">
@@ -7315,16 +7315,16 @@
         <v>2</v>
       </c>
       <c r="B34" s="132">
-        <v>123.2753346850472</v>
+        <v>123.27533468504718</v>
       </c>
       <c r="C34" s="133">
-        <v>113.33821994488794</v>
+        <v>113.33821994488792</v>
       </c>
       <c r="D34" s="134">
-        <v>7.9648188150017951</v>
+        <v>7.9648188150017933</v>
       </c>
       <c r="E34" s="135">
-        <v>12.766261222641067</v>
+        <v>12.766261222641065</v>
       </c>
     </row>
     <row r="35">
@@ -7332,16 +7332,16 @@
         <v>3</v>
       </c>
       <c r="B35" s="137">
-        <v>2.0237067526812236e-44</v>
+        <v>2.0237067526812522e-44</v>
       </c>
       <c r="C35" s="138">
         <v>2.9617456335846662e-43</v>
       </c>
       <c r="D35" s="139">
-        <v>4.317760006578731e-09</v>
+        <v>4.3177600065787467e-09</v>
       </c>
       <c r="E35" s="140">
-        <v>4.2177074291090835e-14</v>
+        <v>4.2177074291090986e-14</v>
       </c>
     </row>
     <row r="36">
@@ -7489,13 +7489,13 @@
         <v>0.013695354231629955</v>
       </c>
       <c r="C48" s="183">
-        <v>0.010262887097924544</v>
+        <v>0.010262887097924545</v>
       </c>
       <c r="D48" s="184">
         <v>0.013695354231629955</v>
       </c>
       <c r="E48" s="185">
-        <v>0.010262887097924544</v>
+        <v>0.010262887097924545</v>
       </c>
     </row>
     <row r="49">
@@ -7506,13 +7506,13 @@
         <v>40.34259434229395</v>
       </c>
       <c r="C49" s="188">
-        <v>58.902350455303313</v>
+        <v>58.902350455303299</v>
       </c>
       <c r="D49" s="189">
         <v>32.674867133106297</v>
       </c>
       <c r="E49" s="190">
-        <v>38.5361179267789</v>
+        <v>38.536117926778893</v>
       </c>
     </row>
     <row r="50">
@@ -7523,13 +7523,13 @@
         <v>5.1595183636353664e-29</v>
       </c>
       <c r="C50" s="193">
-        <v>3.328190435182442e-34</v>
+        <v>3.3281904351824895e-34</v>
       </c>
       <c r="D50" s="194">
         <v>3.7527597109120922e-26</v>
       </c>
       <c r="E50" s="195">
-        <v>2.1717475692689007e-28</v>
+        <v>2.171747569268916e-28</v>
       </c>
     </row>
     <row r="51">
@@ -7707,10 +7707,10 @@
         <v>0.0094283827847650142</v>
       </c>
       <c r="D4" s="245">
-        <v>0.013154690125506616</v>
+        <v>0.013154690125506617</v>
       </c>
       <c r="E4" s="246">
-        <v>0.011264625656037036</v>
+        <v>0.011264625656037034</v>
       </c>
       <c r="F4" s="247">
         <v>0.0097818968697106143</v>
@@ -7730,10 +7730,10 @@
         <v>15.94187858159774</v>
       </c>
       <c r="D5" s="252">
-        <v>51.0792955989644</v>
+        <v>51.079295598964393</v>
       </c>
       <c r="E5" s="253">
-        <v>63.772531136344945</v>
+        <v>63.772531136344959</v>
       </c>
       <c r="F5" s="254">
         <v>20.943326336345645</v>
@@ -7955,22 +7955,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="320">
-        <v>0.013783291975634087</v>
+        <v>0.013783291975634085</v>
       </c>
       <c r="C18" s="321">
-        <v>0.010942684519530357</v>
+        <v>0.010942684519530359</v>
       </c>
       <c r="D18" s="322">
         <v>0.011959078698033981</v>
       </c>
       <c r="E18" s="323">
-        <v>0.010449338616873969</v>
+        <v>0.010449338616873968</v>
       </c>
       <c r="F18" s="324">
-        <v>0.0083425837683248818</v>
+        <v>0.0083425837683248835</v>
       </c>
       <c r="G18" s="325">
-        <v>0.0060201796050083009</v>
+        <v>0.0060201796050083018</v>
       </c>
     </row>
     <row r="19">
@@ -7978,22 +7978,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="327">
-        <v>16.963918692881794</v>
+        <v>16.963918692881798</v>
       </c>
       <c r="C19" s="328">
-        <v>24.782598021806074</v>
+        <v>24.78259802180607</v>
       </c>
       <c r="D19" s="329">
         <v>51.707979832640333</v>
       </c>
       <c r="E19" s="330">
-        <v>61.005943631497033</v>
+        <v>61.00594363149704</v>
       </c>
       <c r="F19" s="331">
-        <v>17.716520394001481</v>
+        <v>17.716520394001478</v>
       </c>
       <c r="G19" s="332">
-        <v>15.172319036729897</v>
+        <v>15.172319036729895</v>
       </c>
     </row>
     <row r="20">
@@ -8001,7 +8001,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="334">
-        <v>1.4871553974363362e-17</v>
+        <v>1.4871553974363254e-17</v>
       </c>
       <c r="C20" s="335">
         <v>1.8754801097316256e-22</v>
@@ -8036,7 +8036,7 @@
         <v>0.6159296317606674</v>
       </c>
       <c r="F21" s="345">
-        <v>0.13160255298179863</v>
+        <v>0.1316025529817986</v>
       </c>
       <c r="G21" s="346">
         <v>0.079795428937464621</v>
@@ -8059,7 +8059,7 @@
         <v>0.6584755893060531</v>
       </c>
       <c r="F22" s="352">
-        <v>0.16561422925542368</v>
+        <v>0.16561422925542374</v>
       </c>
       <c r="G22" s="353">
         <v>0.10436556857873883</v>
@@ -8221,10 +8221,10 @@
         <v>0.035807530523915741</v>
       </c>
       <c r="F33" s="401">
-        <v>0.041030190219463414</v>
+        <v>0.041030190219463407</v>
       </c>
       <c r="G33" s="402">
-        <v>0.012840134582778972</v>
+        <v>0.012840134582778974</v>
       </c>
     </row>
     <row r="34">
@@ -8244,10 +8244,10 @@
         <v>5.572572628912158</v>
       </c>
       <c r="F34" s="408">
-        <v>6.1476614347256273</v>
+        <v>6.1476614347256282</v>
       </c>
       <c r="G34" s="409">
-        <v>5.9464659836622316</v>
+        <v>5.9464659836622307</v>
       </c>
     </row>
     <row r="35">
@@ -8270,7 +8270,7 @@
         <v>7.0837078225251838e-07</v>
       </c>
       <c r="G35" s="416">
-        <v>1.2674235704762291e-06</v>
+        <v>1.2674235704762314e-06</v>
       </c>
     </row>
     <row r="36">
@@ -8290,7 +8290,7 @@
         <v>0.13636449996808583</v>
       </c>
       <c r="F36" s="422">
-        <v>0.17802216897789075</v>
+        <v>0.17802216897789078</v>
       </c>
       <c r="G36" s="423">
         <v>0.053971406672801724</v>
